--- a/output.xlsx
+++ b/output.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="42">
   <si>
     <t>A</t>
   </si>
@@ -22,25 +22,115 @@
     <t>_merge</t>
   </si>
   <si>
-    <t>EAN</t>
-  </si>
-  <si>
-    <t>4770075446954</t>
-  </si>
-  <si>
-    <t>4744466010086</t>
-  </si>
-  <si>
-    <t>4744407010106</t>
-  </si>
-  <si>
-    <t>4744617010040</t>
-  </si>
-  <si>
-    <t>4741129019349</t>
-  </si>
-  <si>
-    <t>4741129019370</t>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>meow</t>
+  </si>
+  <si>
+    <t>4001513006646</t>
+  </si>
+  <si>
+    <t>8001620008171</t>
+  </si>
+  <si>
+    <t>4820002710440</t>
+  </si>
+  <si>
+    <t>4750021735257</t>
+  </si>
+  <si>
+    <t>4001513006653</t>
+  </si>
+  <si>
+    <t>5449000129130</t>
+  </si>
+  <si>
+    <t>4740051476244</t>
+  </si>
+  <si>
+    <t>4740051476602</t>
+  </si>
+  <si>
+    <t>4750239000239</t>
+  </si>
+  <si>
+    <t>8595004610154</t>
+  </si>
+  <si>
+    <t>4605622000290</t>
+  </si>
+  <si>
+    <t>3263286308650</t>
+  </si>
+  <si>
+    <t>4840022001137</t>
+  </si>
+  <si>
+    <t>5601151998571</t>
+  </si>
+  <si>
+    <t>4810130002500</t>
+  </si>
+  <si>
+    <t>4740698000475</t>
+  </si>
+  <si>
+    <t>5010677551397</t>
+  </si>
+  <si>
+    <t>4062400843003</t>
+  </si>
+  <si>
+    <t>4605622003949</t>
+  </si>
+  <si>
+    <t>4600547003449</t>
+  </si>
+  <si>
+    <t>5410263913323</t>
+  </si>
+  <si>
+    <t>8032919460202</t>
+  </si>
+  <si>
+    <t>4760020900013</t>
+  </si>
+  <si>
+    <t>4600682011804</t>
+  </si>
+  <si>
+    <t>5024993729323</t>
+  </si>
+  <si>
+    <t>4600068001221</t>
+  </si>
+  <si>
+    <t>4600682511014</t>
+  </si>
+  <si>
+    <t>4770395222047</t>
+  </si>
+  <si>
+    <t>5010549303642</t>
+  </si>
+  <si>
+    <t>5412343201337</t>
+  </si>
+  <si>
+    <t>5010677554398</t>
+  </si>
+  <si>
+    <t>4760003803508</t>
+  </si>
+  <si>
+    <t>4600682011507</t>
+  </si>
+  <si>
+    <t>5010549302157</t>
+  </si>
+  <si>
+    <t>5024993728852</t>
   </si>
   <si>
     <t>left_only</t>
@@ -407,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +519,7 @@
         <v>4750239000437</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,7 +530,7 @@
         <v>4740042100608</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +541,7 @@
         <v>4001513006646</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,7 +552,7 @@
         <v>8001620008171</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,7 +563,7 @@
         <v>4820002710440</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,7 +574,7 @@
         <v>4750021735257</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,7 +585,7 @@
         <v>4001513006653</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,7 +596,7 @@
         <v>5449000129130</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,7 +607,7 @@
         <v>4740051476244</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -528,7 +618,7 @@
         <v>4740051476602</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -539,7 +629,7 @@
         <v>4750239000239</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -550,7 +640,7 @@
         <v>8595004610154</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -561,7 +651,7 @@
         <v>4605622000290</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -572,7 +662,7 @@
         <v>3263286308650</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -583,7 +673,7 @@
         <v>4840022001137</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -594,7 +684,7 @@
         <v>5601151998571</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -605,7 +695,7 @@
         <v>4810130002500</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -616,7 +706,7 @@
         <v>4740698000475</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -627,7 +717,7 @@
         <v>5010677551397</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -638,7 +728,7 @@
         <v>4062400843003</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -649,7 +739,7 @@
         <v>4605622003949</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -660,7 +750,7 @@
         <v>4600547003449</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -671,7 +761,7 @@
         <v>5410263913323</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -682,7 +772,7 @@
         <v>8032919460202</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -693,7 +783,7 @@
         <v>4760020900013</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -704,7 +794,7 @@
         <v>4600682011804</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -715,7 +805,7 @@
         <v>5024993729323</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -726,7 +816,7 @@
         <v>4600068001221</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -737,7 +827,7 @@
         <v>4600682511014</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -748,7 +838,7 @@
         <v>4770395222047</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -759,7 +849,7 @@
         <v>5010549303642</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -770,7 +860,7 @@
         <v>5412343201337</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -781,7 +871,7 @@
         <v>5010677554398</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -792,7 +882,7 @@
         <v>4760003803508</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -803,7 +893,7 @@
         <v>4600682011507</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -814,7 +904,7 @@
         <v>5010549302157</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -825,7 +915,7 @@
         <v>5024993728852</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -836,7 +926,7 @@
         <v>8714800019170</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -847,7 +937,7 @@
         <v>7618500943180</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -858,7 +948,7 @@
         <v>4605622000481</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -869,7 +959,7 @@
         <v>3182282122162</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -880,7 +970,7 @@
         <v>4607019520572</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -891,7 +981,7 @@
         <v>4770405222401</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -902,7 +992,7 @@
         <v>3546910004792</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -913,7 +1003,7 @@
         <v>4740698000383</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -924,7 +1014,7 @@
         <v>6413600001690</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -935,7 +1025,7 @@
         <v>5012686016980</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -946,7 +1036,7 @@
         <v>42040613</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -957,7 +1047,7 @@
         <v>4751008577242</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -968,7 +1058,7 @@
         <v>8710562165216</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -979,7 +1069,7 @@
         <v>8594065780011</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -990,7 +1080,7 @@
         <v>4760007300133</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1001,7 +1091,7 @@
         <v>5900497110617</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1012,7 +1102,7 @@
         <v>9062300102663</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1023,7 +1113,7 @@
         <v>4750009941533</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1034,7 +1124,7 @@
         <v>47443129</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1045,7 +1135,7 @@
         <v>4740124004152</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1056,7 +1146,7 @@
         <v>5011166012245</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1067,7 +1157,7 @@
         <v>8033564330469</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1078,7 +1168,7 @@
         <v>8033564330445</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1089,7 +1179,7 @@
         <v>5901886008621</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1100,7 +1190,7 @@
         <v>4053400001838</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1111,7 +1201,7 @@
         <v>4740032009386</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1122,7 +1212,7 @@
         <v>8410793162939</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1133,7 +1223,7 @@
         <v>4810014003760</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1144,7 +1234,7 @@
         <v>5010549103600</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1155,7 +1245,7 @@
         <v>41059197</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1166,7 +1256,7 @@
         <v>4740050004097</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1177,7 +1267,7 @@
         <v>5907467911410</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1188,7 +1278,7 @@
         <v>4740067001850</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1199,7 +1289,7 @@
         <v>8033564330506</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1210,7 +1300,7 @@
         <v>4740698000482</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1221,7 +1311,7 @@
         <v>5011166206989</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1232,7 +1322,7 @@
         <v>5907467911830</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1243,7 +1333,7 @@
         <v>42061946</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1254,7 +1344,7 @@
         <v>5601146003013</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1265,7 +1355,7 @@
         <v>5206305001703</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1276,7 +1366,7 @@
         <v>8594404110110</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1287,7 +1377,7 @@
         <v>8594404001418</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1298,7 +1388,7 @@
         <v>8594404000121</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1309,7 +1399,7 @@
         <v>4760026803363</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1320,7 +1410,7 @@
         <v>3155930006015</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1331,7 +1421,7 @@
         <v>5907467911434</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1342,7 +1432,7 @@
         <v>4009491028100</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1353,7 +1443,7 @@
         <v>4760016500128</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1364,7 +1454,7 @@
         <v>4770047228434</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1375,7 +1465,7 @@
         <v>3285590000723</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1386,7 +1476,7 @@
         <v>3182280052614</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1397,7 +1487,7 @@
         <v>3068320105864</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1408,7 +1498,7 @@
         <v>3285590000129</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1419,7 +1509,7 @@
         <v>3182280052522</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1430,7 +1520,7 @@
         <v>8002270018466</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1441,7 +1531,7 @@
         <v>5410228201588</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1452,7 +1542,7 @@
         <v>3048431002573</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1463,7 +1553,7 @@
         <v>5601151528457</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1474,7 +1564,7 @@
         <v>5601151838006</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1485,7 +1575,7 @@
         <v>4740073110058</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1496,7 +1586,7 @@
         <v>4742756000427</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1507,7 +1597,7 @@
         <v>3285590000730</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1518,7 +1608,7 @@
         <v>3249381015457</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1529,29 +1619,29 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>4744782010036</v>
+      <c r="B103" t="s">
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104">
-        <v>4744782010012</v>
+      <c r="B104" t="s">
+        <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1559,10 +1649,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1570,10 +1660,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1581,10 +1671,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1592,10 +1682,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1603,10 +1693,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1614,10 +1704,318 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
         <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
